--- a/PA04/experiment1data.xlsx
+++ b/PA04/experiment1data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>48x60</t>
   </si>
@@ -81,6 +81,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,12 +141,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -534,6 +539,47 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0.484962</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>0.488722</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.481203</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>0.481203</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.481203</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0.511278</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
